--- a/Carbon Calculator for remote Care (CCrC).xlsx
+++ b/Carbon Calculator for remote Care (CCrC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umcutrecht-my.sharepoint.com/personal/c_vanderzee-3_umcutrecht_nl/Documents/2. Carbon Footprint/1. Draft/Shared Folder/1. Lancet Digital Health Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umcutrecht-my.sharepoint.com/personal/c_vanderzee-3_umcutrecht_nl/Documents/2. Carbon Footprint/1. Draft/Shared Folder/6. Sage Path/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{9285F927-7BA0-410E-8F73-EDF1FF1CE6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B1C731-8530-487A-8AD8-D0027E2B0B1C}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{5E90CA47-4483-4F28-A227-419A287688FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD8F8A3-8B06-4CDB-92E1-2C18DBAED73D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11332" xr2:uid="{334AC6FA-66A8-614C-A00E-A8981000EAF5}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{334AC6FA-66A8-614C-A00E-A8981000EAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="CCrC" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t xml:space="preserve">https://www.epa.gov/energy/greenhouse-gases-equivalencies-calculator-calculations-and-references </t>
   </si>
@@ -47,27 +47,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Emissions (kgCO2 per km)</t>
-  </si>
-  <si>
-    <t>Number of patients</t>
-  </si>
-  <si>
-    <t>Number of visits per patient</t>
-  </si>
-  <si>
-    <t>Mean/median ROUNDTRIP distance to clinic site (km)</t>
-  </si>
-  <si>
-    <t>Proportion of transport by car (percent)</t>
-  </si>
-  <si>
     <t>https://www2.deloitte.com/nl/nl/pages/publieke-sector/articles/milieu-impact-van-digital-health-is-grote-bijvangst.html</t>
   </si>
   <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -179,18 +161,12 @@
     <t>DO NOT EDIT BELOW THIS LINE</t>
   </si>
   <si>
-    <t>SUMMARIZED VALUES</t>
-  </si>
-  <si>
     <t>Dropdown List</t>
   </si>
   <si>
     <t>1. input number of patients</t>
   </si>
   <si>
-    <t>3. input proportion of visits conducted remotely (percent)</t>
-  </si>
-  <si>
     <t>6. emissions by region (kgCO2 per km)</t>
   </si>
   <si>
@@ -225,57 +201,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimated carbon footprint savings </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>per visit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (kgCO2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimated carbon footprint savings </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>across all visits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (kgCO2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Example Case [1]</t>
   </si>
   <si>
     <t>Example Case</t>
@@ -325,12 +250,6 @@
     <t>INPUTS</t>
   </si>
   <si>
-    <t>LCA: Additional telemedicine carbon emissions when no distance is traveled (kgCO2)</t>
-  </si>
-  <si>
-    <t>LCA: correction factor (percent/km)</t>
-  </si>
-  <si>
     <t>4. input mean/median ROUNDTRIP distance to clinic site in kilometers (km)</t>
   </si>
   <si>
@@ -338,12 +257,6 @@
   </si>
   <si>
     <t>LCA Correction (%/km)</t>
-  </si>
-  <si>
-    <t>7a. LCA: correction factor (percent/km)</t>
-  </si>
-  <si>
-    <t>7b. LCA: additional telemedicine carbon emissions when no distance is traveled (kgCO2)</t>
   </si>
   <si>
     <r>
@@ -622,18 +535,12 @@
     </r>
   </si>
   <si>
-    <t>Case Based on Current Values</t>
-  </si>
-  <si>
     <t>Example Values</t>
   </si>
   <si>
     <t>Current Value</t>
   </si>
   <si>
-    <t>Proportion of visits that are remote (percent)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2. input number of potential visits per patient, </t>
     </r>
@@ -647,23 +554,151 @@
       </rPr>
       <t>e.g., 1 day postop + 1 week postop + 1 month postop = 3 visits</t>
     </r>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>kgCO2/km</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>staff members</t>
+  </si>
+  <si>
+    <t>visits/patient</t>
+  </si>
+  <si>
+    <t>7b. LCA: duration of visit (minutes)</t>
+  </si>
+  <si>
+    <t>8a. Staff travel: number of staff members able to work from home</t>
+  </si>
+  <si>
+    <t>Bartlett et al.</t>
+  </si>
+  <si>
+    <t>Duration of visit (minutes)</t>
+  </si>
+  <si>
+    <t>Number of visits per day</t>
+  </si>
+  <si>
+    <t>3. input proportion of visits able to be conducted remotely (percent)</t>
+  </si>
+  <si>
+    <t>7a. LCA: additional carbon emissions per hour of in-person visit vs. remote when no distance is traveled (kgCO2/hour)</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>kgCO2/hour</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimated carbon footprint savings </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>per visit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>based on distance alone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (no LCA) (kgCO2)</t>
+    </r>
+  </si>
+  <si>
+    <t>9b. Staff LCA: carbon emissions for remote care per staff member per hour (kgCO2/hour)</t>
+  </si>
+  <si>
+    <t>9a. Staff travel: number of clinic hours</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>8b. Staff travel: estimated distance that staff live from work compared to patients</t>
+  </si>
+  <si>
+    <t>RESULTS: Estimated carbon footprint savings</t>
+  </si>
+  <si>
+    <t>(Total number of remote visits that would have been accessed by car)</t>
+  </si>
+  <si>
+    <t>(Number of visits per day)</t>
+  </si>
+  <si>
+    <t>(Staff days necessary to cover all visits)</t>
+  </si>
+  <si>
+    <t>Per visit with LCA (no staff travel or staff LCA) (kgCO2)</t>
+  </si>
+  <si>
+    <t>Of staff travel alone (kgCO2)</t>
+  </si>
+  <si>
+    <t>Of staff LCA alone (kgCO2)</t>
+  </si>
+  <si>
+    <t>Per visit with LCA (kgCO2)</t>
+  </si>
+  <si>
+    <t>Across all visits from patient travel alone (kgCO2)</t>
+  </si>
+  <si>
+    <t>Across all visits (kgCO2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -687,12 +722,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -832,19 +861,31 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -865,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -889,41 +930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -935,7 +941,90 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="dashed">
@@ -950,22 +1039,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -978,13 +1054,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -993,27 +1065,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,19 +1080,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1050,8 +1096,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,8 +1106,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1071,166 +1119,260 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dashed">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1545,435 +1687,539 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.8125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.1875" style="1"/>
+    <col min="6" max="6" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20">
+        <f>IF(C6="Custom Case",E6,INDEX(REFERENCES!B2:B3,MATCH(CCrC!C6,REFERENCES!A2:A3,0)))</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="27">
+        <v>100</v>
+      </c>
+      <c r="F6" s="37">
+        <v>180000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21">
+        <f>IF(C7="Custom Case",E7,INDEX(REFERENCES!B6:B7,MATCH(CCrC!C7,REFERENCES!A6:A7,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="59" t="s">
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="22">
+        <f>IF(C8="Custom Case",E8,INDEX(REFERENCES!B10:B11,MATCH(CCrC!C8,REFERENCES!A10:A11,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23">
+        <f>IF(C9="Custom Case",E9,INDEX(REFERENCES!B14:B16,MATCH(CCrC!C9,REFERENCES!A14:A16,0)))</f>
+        <v>131.30000000000001</v>
+      </c>
+      <c r="E9" s="30">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="F9" s="40">
+        <v>14.2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="22">
+        <f>IF(C10="Custom Case",E10,INDEX(REFERENCES!B19:B20,MATCH(CCrC!C10,REFERENCES!A19:A20,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="42">
+        <f>IF(C11="Custom Case",E11,INDEX(REFERENCES!B23:B57,MATCH(CCrC!C11,REFERENCES!A23:A57,0)))</f>
+        <v>0.1163</v>
+      </c>
+      <c r="E11" s="32">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F11" s="41">
+        <v>9.509999999999999E-2</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="24">
+        <f>IF(C12="Custom Case",E12,INDEX(REFERENCES!B60:B61,MATCH(CCrC!C12,REFERENCES!A60:A61,0)))</f>
+        <v>0.128</v>
+      </c>
+      <c r="E12" s="33">
+        <f>F12*1.2</f>
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0.128</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="25">
+        <f>IF(C13="Custom Case",E13,F13)</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <v>15</v>
+      </c>
+      <c r="F13" s="37">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="25">
+        <f>IF(C14="Custom Case",E14,F14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="34">
+        <v>2</v>
+      </c>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="22">
+        <f>IF(C15="Custom Case",E15,F15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="25">
+        <f>IF(C16="Custom Case",E16,F16)</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="27">
+        <v>10</v>
+      </c>
+      <c r="F16" s="37">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="24">
+        <f>IF(C17="Custom Case",E17,F17)</f>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="E17" s="43">
+        <f>0.012+0.0185</f>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F17" s="43">
+        <f>0.012+0.0185</f>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="64">
+        <f>D9*D11</f>
+        <v>15.270190000000001</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="45">
+        <f>F9*F11</f>
+        <v>1.3504199999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="61">
+        <f>C19+D12*D13/60</f>
+        <v>15.302190000000001</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="46">
+        <f>F19+F12*F13/60</f>
+        <v>1.3717533333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="54">
+        <f>D14*D9*D11*D15</f>
+        <v>24.432304000000002</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="47">
+        <f>F14*F9*F11*F15</f>
+        <v>0.77919233999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="54">
+        <f>-D14*D17*D13/60</f>
+        <v>-1.5250000000000001E-2</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="47">
+        <f>-F14*F17*F13/60</f>
+        <v>-5.0833333333333329E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="67">
+        <f>C20+C21+C22</f>
+        <v>39.719244000000003</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="48">
+        <f>F20+F21+F22</f>
+        <v>2.1458623399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="71">
+        <f>D6*D7*D8*D10</f>
+        <v>100</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74">
+        <f>F6*F7*F8*F10</f>
+        <v>314766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="71">
+        <f>D16*60/D13</f>
+        <v>40</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74">
+        <f>F16*60/F13</f>
         <v>48</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="21">
-        <f>IF(C6="Custom Case",E6,INDEX(REFERENCES!B2:B3,MATCH(CCrC!C6,REFERENCES!A2:A3,0)))</f>
-        <v>100000</v>
-      </c>
-      <c r="E6" s="61">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="31">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="46"/>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="22">
-        <f>IF(C7="Custom Case",E7,INDEX(REFERENCES!B6:B7,MATCH(CCrC!C7,REFERENCES!A6:A7,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="61">
-        <v>2</v>
-      </c>
-      <c r="F7" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="23">
-        <f>IF(C8="Custom Case",E8,INDEX(REFERENCES!B10:B11,MATCH(CCrC!C8,REFERENCES!A10:A11,0)))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="24">
-        <f>IF(C9="Custom Case",E9,INDEX(REFERENCES!B14:B16,MATCH(CCrC!C9,REFERENCES!A14:A16,0)))</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="61">
-        <v>10</v>
-      </c>
-      <c r="F9" s="41">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="23">
-        <f>IF(C10="Custom Case",E10,INDEX(REFERENCES!B19:B20,MATCH(CCrC!C10,REFERENCES!A19:A20,0)))</f>
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="63">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="64">
-        <f>IF(C11="Custom Case",E11,INDEX(REFERENCES!B23:B57,MATCH(CCrC!C11,REFERENCES!A23:A57,0)))</f>
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="33">
-        <v>9.509999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="23">
-        <f>IF(C12="Custom Case",E12,INDEX(REFERENCES!B60:B62,MATCH(CCrC!C12,REFERENCES!A60:A62,0)))</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="32">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="14.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="25">
-        <f>IF(C13="Custom Case",E13,INDEX(REFERENCES!B65:B66,MATCH(CCrC!C13,REFERENCES!A65:A66,0)))</f>
-        <v>3.04</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="34">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="54">
-        <f>INDEX(REFERENCES!B2:B3,MATCH(CCrC!C6,REFERENCES!A2:A3,0))</f>
-        <v>100000</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="31">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="54">
-        <f>INDEX(REFERENCES!B6:B7,MATCH(CCrC!C7,REFERENCES!A6:A7,0))</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="47"/>
-      <c r="B18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="49">
-        <f>INDEX(REFERENCES!B10:B11,MATCH(CCrC!C8,REFERENCES!A10:A11,0))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="32">
-        <v>0.67</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="55">
-        <f>INDEX(REFERENCES!B14:B16,MATCH(CCrC!C9,REFERENCES!A14:A16,0))</f>
-        <v>10</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="27">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="49">
-        <f>INDEX(REFERENCES!B19:B20,MATCH(CCrC!C10,REFERENCES!A19:A20,0))</f>
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="32">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="50">
-        <f>INDEX(REFERENCES!B23:B57,MATCH(CCrC!C11,REFERENCES!A23:A57,0))</f>
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="33">
-        <v>9.5100000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="49">
-        <f>INDEX(REFERENCES!B60:B62,MATCH(CCrC!C12,REFERENCES!A60:A62,0))</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="32">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="51">
-        <f>INDEX(REFERENCES!B65:B66,MATCH(CCrC!C13,REFERENCES!A65:A66,0))</f>
-        <v>3.04</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="35">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="52">
-        <f>C19*C21*C22</f>
-        <v>1.7208749999999999</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="37">
-        <f>F19*F21*F22</f>
-        <v>1.3166594999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="44"/>
-      <c r="B25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="42">
-        <f>C16*C17*C18*C19*C20*C21*C22+C23</f>
-        <v>154881.79</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39">
-        <f>F16*F17*F18*F19*F20*F21*F22+F23</f>
-        <v>414442.68417700002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="71">
+        <f>C24/C25</f>
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74">
+        <f>F24/F25</f>
+        <v>6557.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="76"/>
+      <c r="B27" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="57">
+        <f>C19*C24</f>
+        <v>1527.0190000000002</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="49">
+        <f>F19*F24</f>
+        <v>425066.30171999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="57">
+        <f>(C20+C22)*D6*D7*D8*D10+C21*C26</f>
+        <v>1589.7747600000002</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="49">
+        <f>(F20+F22)*F6*F7*F8*F10+F21*F26</f>
+        <v>435290.9003885925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D11:E11"/>
+  <mergeCells count="18">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:A16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation errorStyle="information" allowBlank="1" showDropDown="1" showInputMessage="1" sqref="D6" xr:uid="{2E91937B-9FD5-4E65-A6ED-7CEF5B0E8514}"/>
@@ -1983,12 +2229,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93831E35-A548-49CC-BF09-6489ACF7C3F1}">
-          <x14:formula1>
-            <xm:f>REFERENCES!$A$60:$A$62</xm:f>
-          </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB7F73AF-E721-4EA0-9535-21CDA7F534EE}">
           <x14:formula1>
             <xm:f>REFERENCES!$A$19:$A$20</xm:f>
@@ -2019,17 +2259,23 @@
           </x14:formula1>
           <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F20D0C3C-C6FA-4EF5-91C5-EEBCB0638898}">
+          <x14:formula1>
+            <xm:f>REFERENCES!$A$60:$A$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12:C14 C16:C17</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96CD66F4-2893-4878-94D3-1C67973F18F0}">
           <x14:formula1>
             <xm:f>REFERENCES!$A$23:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C11:C14 C16:C17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F20D0C3C-C6FA-4EF5-91C5-EEBCB0638898}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93831E35-A548-49CC-BF09-6489ACF7C3F1}">
           <x14:formula1>
-            <xm:f>REFERENCES!$A$65:$A$66</xm:f>
+            <xm:f>REFERENCES!$A$68:$A$70</xm:f>
           </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
+          <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2039,652 +2285,714 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3549067E-1978-40E2-B2B4-B601DE63D18F}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3125" customWidth="1"/>
+    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" customWidth="1"/>
     <col min="3" max="3" width="104.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12">
+        <v>45</v>
+      </c>
+      <c r="B2" s="10">
         <f>CCrC!E6</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="12">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10">
         <v>180000</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="11">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9">
         <f>CCrC!E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7">
+        <f>CCrC!E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="8">
+        <f>CCrC!E9</f>
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7">
+        <f>CCrC!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8">
-        <f>CCrC!E8</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6">
+        <f>CCrC!E11</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="10">
-        <f>CCrC!E9</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="10">
-        <v>14.2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8">
-        <f>CCrC!E10</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="7">
-        <f>CCrC!E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>67</v>
       </c>
       <c r="B24">
         <v>9.509999999999999E-2</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>0.251</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <f>AVERAGE(0.168,0.185)</f>
         <v>0.17649999999999999</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>0.14649999999999999</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>0.1163</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0.1147</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.1162</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>0.11700000000000001</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>0.13980000000000001</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>0.129</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>0.14580000000000001</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>20</v>
       </c>
       <c r="B35">
         <v>0.13589999999999999</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>9.2599999999999988E-2</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0.1426</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0.10859999999999999</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0.11359999999999999</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0.1197</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0.11259999999999999</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0.12459999999999999</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0.14249999999999999</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0.13569999999999999</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0.12379999999999999</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>0.10349999999999999</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0.13619999999999999</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0.1071</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0.1265</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0.13919999999999999</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0.13390000000000002</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0.1268</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>2.7600000000000003E-2</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A59" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="17" t="e">
+        <f>CCrC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="17" t="e">
+        <f>CCrC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="17">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="12">
+        <f>CCrC!D15</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="12">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C69" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="5" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A60" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="14">
-        <f>CCrC!D12</f>
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A61" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="14">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A65" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="20">
-        <f>CCrC!D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="20">
-        <v>3.04</v>
-      </c>
-      <c r="C66" t="s">
-        <v>69</v>
+      <c r="C72" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="17" t="e">
+        <f>CCrC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="17">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" xr:uid="{344DA586-1FAB-4419-971F-928276C3559E}"/>
     <hyperlink ref="C26" r:id="rId2" xr:uid="{BCFACF25-2A9E-4107-BBB9-C36E6F4E2076}"/>
